--- a/PowerWorld Files/Bus3Fault.xlsx
+++ b/PowerWorld Files/Bus3Fault.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/jpz15_pitt_edu/Documents/Desktop/ECE 2774/circuitSimulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allis\Desktop\University\ECE1774\circuitSim\PowerWorld Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95AB0773-06DE-43BB-A3DF-C3FE4003F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3880F0-0274-4FFC-A101-BAC543B779F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AE51192A-5BC7-4E71-80B5-CB1FC86F9317}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="8916" windowHeight="12336" xr2:uid="{AE51192A-5BC7-4E71-80B5-CB1FC86F9317}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Bus</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Phase Ang C</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -78,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,13 +107,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -121,16 +168,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>264072</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>211479</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>79049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -153,8 +200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="922020" y="2011680"/>
-          <a:ext cx="2459379" cy="1790700"/>
+          <a:off x="783020" y="1797269"/>
+          <a:ext cx="2468839" cy="1801210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -483,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA4115C-1D6A-45D3-82BA-DB3CF9277090}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,9 +759,20 @@
         <v>127.68</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
